--- a/src/analysis_examples/circadipy/results_circadipy/sine_01/cosinor_1_sine_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_01/cosinor_1_sine_01_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>22.68000000000011</v>
+        <v>22.88000000000014</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>2.381175387935993e-16</v>
+        <v>2.413528314402514e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>39.79665419150193</v>
+        <v>39.6738796845174</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[31.903221961615934, 47.690086421387925]</t>
+          <t>[31.33223298719693, 48.01552638183786]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.679289766783732</v>
+        <v>1.754763464167272</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.452868674633116, 1.9057108589343486]</t>
+          <t>[1.5157634224527339, 1.9937635058818106]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>59.0001873400674</v>
+        <v>57.92916248496812</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[53.987903600137045, 64.01247107999775]</t>
+          <t>[52.752583525290774, 63.105741444645474]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>16.61837837837846</v>
+        <v>16.49009009009019</v>
       </c>
       <c r="X2" t="n">
-        <v>15.80108108108116</v>
+        <v>15.61977977977987</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.43567567567576</v>
+        <v>17.3604004004005</v>
       </c>
     </row>
     <row r="3">
@@ -641,7 +641,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>25.51000000000055</v>
+        <v>25.8500000000006</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>2.381175387935993e-16</v>
+        <v>2.413528314402514e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>47.94621176614287</v>
+        <v>46.72982678577304</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[37.67856903422809, 58.21385449805764]</t>
+          <t>[38.259344185007414, 55.20030938653867]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -680,25 +680,25 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.6415264277600778</v>
+        <v>0.1698158191129613</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-0.855368570346771, -0.42768428517338464]</t>
+          <t>[-0.031447373909808896, 0.37107901213573147]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>1.001700589142729e-08</v>
+        <v>0.09785889909533241</v>
       </c>
       <c r="R3" t="n">
-        <v>1.001700589142729e-08</v>
+        <v>0.09785889909533241</v>
       </c>
       <c r="S3" t="n">
-        <v>53.48026856261276</v>
+        <v>61.30705446738548</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[48.18416899557462, 58.776368129650905]</t>
+          <t>[56.01242259532043, 66.60168633945054]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>2.60462462462468</v>
+        <v>25.15135135135194</v>
       </c>
       <c r="X3" t="n">
-        <v>1.736416416416451</v>
+        <v>24.32332332332389</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.47283283283291</v>
+        <v>25.97937937937999</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_01/cosinor_1_sine_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_01/cosinor_1_sine_01_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>22.88000000000014</v>
+        <v>22.45000000000007</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>2.413528314402514e-16</v>
+        <v>2.651278864776493e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>39.6738796845174</v>
+        <v>44.24466656160574</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[31.33223298719693, 48.01552638183786]</t>
+          <t>[35.89373052807835, 52.59560259513313]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.754763464167272</v>
+        <v>1.327079178993887</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.5157634224527339, 1.9937635058818106]</t>
+          <t>[1.1258159859711165, 1.528342372016657]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>57.92916248496812</v>
+        <v>57.11957452867102</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[52.752583525290774, 63.105741444645474]</t>
+          <t>[52.128049459756596, 62.11109959758544]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>16.49009009009019</v>
+        <v>17.70830830830836</v>
       </c>
       <c r="X2" t="n">
-        <v>15.61977977977987</v>
+        <v>16.98918918918924</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.3604004004005</v>
+        <v>18.42742742742749</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>25.8500000000006</v>
+        <v>25.8300000000006</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>2.413528314402514e-16</v>
+        <v>2.651278864776493e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>46.72982678577304</v>
+        <v>44.29686484383718</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[38.259344185007414, 55.20030938653867]</t>
+          <t>[35.6030145235967, 52.990715164077656]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -680,25 +680,25 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1698158191129613</v>
+        <v>0.2075526678047313</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-0.031447373909808896, 0.37107901213573147]</t>
+          <t>[-0.006289474781961069, 0.42139481039142357]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.09785889909533241</v>
+        <v>0.05708119780241216</v>
       </c>
       <c r="R3" t="n">
-        <v>0.09785889909533241</v>
+        <v>0.05708119780241216</v>
       </c>
       <c r="S3" t="n">
-        <v>61.30705446738548</v>
+        <v>59.43003772217806</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[56.01242259532043, 66.60168633945054]</t>
+          <t>[54.13555788238174, 64.72451756197438]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>25.15135135135194</v>
+        <v>24.97675675675734</v>
       </c>
       <c r="X3" t="n">
-        <v>24.32332332332389</v>
+        <v>24.09765765765822</v>
       </c>
       <c r="Y3" t="n">
-        <v>25.97937937937999</v>
+        <v>25.85585585585645</v>
       </c>
     </row>
   </sheetData>
